--- a/Code/Results/Cases/Case_1_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_72/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2761521748416413</v>
+        <v>0.1424943767320741</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.415816999082722</v>
+        <v>0.3118604158014193</v>
       </c>
       <c r="E2">
-        <v>0.8463949172655134</v>
+        <v>0.1840118281489467</v>
       </c>
       <c r="F2">
-        <v>19.06031633528727</v>
+        <v>4.732069065250016</v>
       </c>
       <c r="G2">
-        <v>0.0005030481715190693</v>
+        <v>0.002378732223644709</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.073815476372</v>
+        <v>2.312952077893129</v>
       </c>
       <c r="N2">
-        <v>0.7746072050887562</v>
+        <v>1.161793999541331</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2404272840827417</v>
+        <v>0.1329165875995102</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.086029913878633</v>
+        <v>0.2791309932840704</v>
       </c>
       <c r="E3">
-        <v>0.6737989699514273</v>
+        <v>0.1608958717539366</v>
       </c>
       <c r="F3">
-        <v>14.77089785212763</v>
+        <v>4.290291793991116</v>
       </c>
       <c r="G3">
-        <v>0.0005575638561917094</v>
+        <v>0.002395785736275016</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.997546928059165</v>
+        <v>2.037504976932127</v>
       </c>
       <c r="N3">
-        <v>0.818636986779353</v>
+        <v>1.164505009984907</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2189362327085149</v>
+        <v>0.1271057416350345</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9278951358758718</v>
+        <v>0.2594259080747179</v>
       </c>
       <c r="E4">
-        <v>0.5885297502110234</v>
+        <v>0.1467170950507324</v>
       </c>
       <c r="F4">
-        <v>12.68885058895472</v>
+        <v>4.024650225300491</v>
       </c>
       <c r="G4">
-        <v>0.0005863417919895696</v>
+        <v>0.002406718192862072</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.95097824164975</v>
+        <v>1.869911284058247</v>
       </c>
       <c r="N4">
-        <v>0.8405577133435997</v>
+        <v>1.166804577164058</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2102570413508573</v>
+        <v>0.1247554887388134</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.869753644884554</v>
+        <v>0.2514874601470183</v>
       </c>
       <c r="E5">
-        <v>0.556600944146119</v>
+        <v>0.1409406385789822</v>
       </c>
       <c r="F5">
-        <v>11.91927747034924</v>
+        <v>3.917724988858481</v>
       </c>
       <c r="G5">
-        <v>0.0005974567383055624</v>
+        <v>0.002411290404933791</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6.557119470847113</v>
+        <v>1.801967288672415</v>
       </c>
       <c r="N5">
-        <v>0.8489271989554084</v>
+        <v>1.167902417565884</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2088199883167903</v>
+        <v>0.1243663046185475</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8603992987198694</v>
+        <v>0.2501746225975978</v>
       </c>
       <c r="E6">
-        <v>0.5514308798470324</v>
+        <v>0.1399814929429581</v>
       </c>
       <c r="F6">
-        <v>11.79525718126928</v>
+        <v>3.900047786284432</v>
       </c>
       <c r="G6">
-        <v>0.0005992748348503394</v>
+        <v>0.002412056724042516</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6.493275587351945</v>
+        <v>1.79070553704662</v>
       </c>
       <c r="N6">
-        <v>0.8502946354189618</v>
+        <v>1.168094453682215</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2188188936978861</v>
+        <v>0.1270739734135873</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9270894030522641</v>
+        <v>0.2593184855188326</v>
       </c>
       <c r="E7">
-        <v>0.5880896032037342</v>
+        <v>0.1466391883805969</v>
       </c>
       <c r="F7">
-        <v>12.67820067022132</v>
+        <v>4.023202935971142</v>
       </c>
       <c r="G7">
-        <v>0.0005864937142845206</v>
+        <v>0.002406779379480869</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.94555444014199</v>
+        <v>1.868993586334454</v>
       </c>
       <c r="N7">
-        <v>0.8406723001598948</v>
+        <v>1.166818730722838</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2637129805713698</v>
+        <v>0.1391775053170647</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.28827835097826</v>
+        <v>0.3004900153726737</v>
       </c>
       <c r="E8">
-        <v>0.7802760580032171</v>
+        <v>0.1760371090530199</v>
       </c>
       <c r="F8">
-        <v>17.41002440275804</v>
+        <v>4.578527167677464</v>
       </c>
       <c r="G8">
-        <v>0.0005233597992061652</v>
+        <v>0.002384517151032461</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>9.2870886115372</v>
+        <v>2.217639334998921</v>
       </c>
       <c r="N8">
-        <v>0.7915463279123713</v>
+        <v>1.162597599577566</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2637129805713698</v>
+        <v>0.1634636790937236</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.28827835097826</v>
+        <v>0.3846505399327782</v>
       </c>
       <c r="E9">
-        <v>0.7802760580032171</v>
+        <v>0.2339055314143508</v>
       </c>
       <c r="F9">
-        <v>17.41002440275804</v>
+        <v>5.716097603498781</v>
       </c>
       <c r="G9">
-        <v>0.0005233597992061652</v>
+        <v>0.002344471965710315</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9.2870886115372</v>
+        <v>2.915095691529245</v>
       </c>
       <c r="N9">
-        <v>0.7915463279123713</v>
+        <v>1.159312783686843</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2637129805713698</v>
+        <v>0.1816398203814487</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.28827835097826</v>
+        <v>0.4490420599191509</v>
       </c>
       <c r="E10">
-        <v>0.7802760580032171</v>
+        <v>0.2767111162530256</v>
       </c>
       <c r="F10">
-        <v>17.41002440275804</v>
+        <v>6.587449386849585</v>
       </c>
       <c r="G10">
-        <v>0.0005233597992061652</v>
+        <v>0.002317178501652276</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>9.2870886115372</v>
+        <v>3.438292748527005</v>
       </c>
       <c r="N10">
-        <v>0.7915463279123713</v>
+        <v>1.159883975067743</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2637129805713698</v>
+        <v>0.1899805412308098</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.28827835097826</v>
+        <v>0.4790011395062947</v>
       </c>
       <c r="E11">
-        <v>0.7802760580032171</v>
+        <v>0.296284319416813</v>
       </c>
       <c r="F11">
-        <v>17.41002440275804</v>
+        <v>6.992967294441144</v>
       </c>
       <c r="G11">
-        <v>0.0005233597992061652</v>
+        <v>0.00230520731410648</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>9.2870886115372</v>
+        <v>3.679207878160241</v>
       </c>
       <c r="N11">
-        <v>0.7915463279123713</v>
+        <v>1.160779577295173</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2637129805713698</v>
+        <v>0.1931492801008972</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.28827835097826</v>
+        <v>0.4904513616683914</v>
       </c>
       <c r="E12">
-        <v>0.7802760580032171</v>
+        <v>0.3037138658572331</v>
       </c>
       <c r="F12">
-        <v>17.41002440275804</v>
+        <v>7.147960971025498</v>
       </c>
       <c r="G12">
-        <v>0.0005233597992061652</v>
+        <v>0.002300736687076403</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.2870886115372</v>
+        <v>3.770902964658546</v>
       </c>
       <c r="N12">
-        <v>0.7915463279123713</v>
+        <v>1.161209102450883</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2637129805713698</v>
+        <v>0.1924663795527408</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.28827835097826</v>
+        <v>0.4879805089109368</v>
       </c>
       <c r="E13">
-        <v>0.7802760580032171</v>
+        <v>0.3021129455562175</v>
       </c>
       <c r="F13">
-        <v>17.41002440275804</v>
+        <v>7.114514612737537</v>
       </c>
       <c r="G13">
-        <v>0.0005233597992061652</v>
+        <v>0.002301696754342236</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.2870886115372</v>
+        <v>3.751133289474438</v>
       </c>
       <c r="N13">
-        <v>0.7915463279123713</v>
+        <v>1.161112593415183</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2637129805713698</v>
+        <v>0.1902410296807489</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.28827835097826</v>
+        <v>0.4799409883821397</v>
       </c>
       <c r="E14">
-        <v>0.7802760580032171</v>
+        <v>0.2968951813817569</v>
       </c>
       <c r="F14">
-        <v>17.41002440275804</v>
+        <v>7.005689294240597</v>
       </c>
       <c r="G14">
-        <v>0.0005233597992061652</v>
+        <v>0.002304838266371068</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>9.2870886115372</v>
+        <v>3.686742072815463</v>
       </c>
       <c r="N14">
-        <v>0.7915463279123713</v>
+        <v>1.160813109197164</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2637129805713698</v>
+        <v>0.1888792754276523</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.28827835097826</v>
+        <v>0.4750305616608728</v>
       </c>
       <c r="E15">
-        <v>0.7802760580032171</v>
+        <v>0.2937015380596932</v>
       </c>
       <c r="F15">
-        <v>17.41002440275804</v>
+        <v>6.939220896083327</v>
       </c>
       <c r="G15">
-        <v>0.0005233597992061652</v>
+        <v>0.00230677064447379</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>9.2870886115372</v>
+        <v>3.647362699675881</v>
       </c>
       <c r="N15">
-        <v>0.7915463279123713</v>
+        <v>1.160641405737778</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2637129805713698</v>
+        <v>0.1810961802115827</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.28827835097826</v>
+        <v>0.447098381875179</v>
       </c>
       <c r="E16">
-        <v>0.7802760580032171</v>
+        <v>0.2754342498998881</v>
       </c>
       <c r="F16">
-        <v>17.41002440275804</v>
+        <v>6.561141701914835</v>
       </c>
       <c r="G16">
-        <v>0.0005233597992061652</v>
+        <v>0.002317969682042819</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>9.2870886115372</v>
+        <v>3.422610916122068</v>
       </c>
       <c r="N16">
-        <v>0.7915463279123713</v>
+        <v>1.159838149403569</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2637129805713698</v>
+        <v>0.1763399432845603</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.28827835097826</v>
+        <v>0.4301402978102828</v>
       </c>
       <c r="E17">
-        <v>0.7802760580032171</v>
+        <v>0.2642558114467022</v>
       </c>
       <c r="F17">
-        <v>17.41002440275804</v>
+        <v>6.33162488216044</v>
       </c>
       <c r="G17">
-        <v>0.0005233597992061652</v>
+        <v>0.00232495289441869</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>9.2870886115372</v>
+        <v>3.285511106277994</v>
       </c>
       <c r="N17">
-        <v>0.7915463279123713</v>
+        <v>1.159507469544309</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2637129805713698</v>
+        <v>0.1736110932492494</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.28827835097826</v>
+        <v>0.4204486461888166</v>
       </c>
       <c r="E18">
-        <v>0.7802760580032171</v>
+        <v>0.2578355520029731</v>
       </c>
       <c r="F18">
-        <v>17.41002440275804</v>
+        <v>6.200465240601432</v>
       </c>
       <c r="G18">
-        <v>0.0005233597992061652</v>
+        <v>0.002329011399124175</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>9.2870886115372</v>
+        <v>3.206925848194771</v>
       </c>
       <c r="N18">
-        <v>0.7915463279123713</v>
+        <v>1.159377174389661</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2637129805713698</v>
+        <v>0.172688324805037</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.28827835097826</v>
+        <v>0.4171776214270722</v>
       </c>
       <c r="E19">
-        <v>0.7802760580032171</v>
+        <v>0.2556632651863993</v>
       </c>
       <c r="F19">
-        <v>17.41002440275804</v>
+        <v>6.156199712392606</v>
       </c>
       <c r="G19">
-        <v>0.0005233597992061652</v>
+        <v>0.002330392783757176</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>9.2870886115372</v>
+        <v>3.180363366592672</v>
       </c>
       <c r="N19">
-        <v>0.7915463279123713</v>
+        <v>1.159343378920781</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2637129805713698</v>
+        <v>0.1768455486460709</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.28827835097826</v>
+        <v>0.4319390116650084</v>
       </c>
       <c r="E20">
-        <v>0.7802760580032171</v>
+        <v>0.2654447926668411</v>
       </c>
       <c r="F20">
-        <v>17.41002440275804</v>
+        <v>6.355968281485275</v>
       </c>
       <c r="G20">
-        <v>0.0005233597992061652</v>
+        <v>0.002324205187653863</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>9.2870886115372</v>
+        <v>3.300077241634682</v>
       </c>
       <c r="N20">
-        <v>0.7915463279123713</v>
+        <v>1.159536478790898</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2637129805713698</v>
+        <v>0.1908943904786184</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.28827835097826</v>
+        <v>0.4822994527801256</v>
       </c>
       <c r="E21">
-        <v>0.7802760580032171</v>
+        <v>0.2984272617121206</v>
       </c>
       <c r="F21">
-        <v>17.41002440275804</v>
+        <v>7.037614057614519</v>
       </c>
       <c r="G21">
-        <v>0.0005233597992061652</v>
+        <v>0.002303913840123058</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>9.2870886115372</v>
+        <v>3.70564230273169</v>
       </c>
       <c r="N21">
-        <v>0.7915463279123713</v>
+        <v>1.160898630375158</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2637129805713698</v>
+        <v>0.2001360460211856</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.28827835097826</v>
+        <v>0.515831862542484</v>
       </c>
       <c r="E22">
-        <v>0.7802760580032171</v>
+        <v>0.3200873902742245</v>
       </c>
       <c r="F22">
-        <v>17.41002440275804</v>
+        <v>7.491520990578749</v>
       </c>
       <c r="G22">
-        <v>0.0005233597992061652</v>
+        <v>0.002291016494449641</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.2870886115372</v>
+        <v>3.973441295945236</v>
       </c>
       <c r="N22">
-        <v>0.7915463279123713</v>
+        <v>1.16231519689147</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2637129805713698</v>
+        <v>0.1951981517022574</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.28827835097826</v>
+        <v>0.4978750859357604</v>
       </c>
       <c r="E23">
-        <v>0.7802760580032171</v>
+        <v>0.3085163558629773</v>
       </c>
       <c r="F23">
-        <v>17.41002440275804</v>
+        <v>7.248451441533291</v>
       </c>
       <c r="G23">
-        <v>0.0005233597992061652</v>
+        <v>0.002297867185738176</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.2870886115372</v>
+        <v>3.830244968102278</v>
       </c>
       <c r="N23">
-        <v>0.7915463279123713</v>
+        <v>1.161511333947317</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2637129805713698</v>
+        <v>0.1766169470917447</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.28827835097826</v>
+        <v>0.4311256338775138</v>
       </c>
       <c r="E24">
-        <v>0.7802760580032171</v>
+        <v>0.264907234637505</v>
       </c>
       <c r="F24">
-        <v>17.41002440275804</v>
+        <v>6.344960170699153</v>
       </c>
       <c r="G24">
-        <v>0.0005233597992061652</v>
+        <v>0.002324543089701712</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>9.2870886115372</v>
+        <v>3.293491162633899</v>
       </c>
       <c r="N24">
-        <v>0.7915463279123713</v>
+        <v>1.159523177314554</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2637129805713698</v>
+        <v>0.1568349367126558</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.28827835097826</v>
+        <v>0.3614691270802268</v>
       </c>
       <c r="E25">
-        <v>0.7802760580032171</v>
+        <v>0.218211561347033</v>
       </c>
       <c r="F25">
-        <v>17.41002440275804</v>
+        <v>5.402556378427278</v>
       </c>
       <c r="G25">
-        <v>0.0005233597992061652</v>
+        <v>0.002354926125232301</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>9.2870886115372</v>
+        <v>2.724703118753609</v>
       </c>
       <c r="N25">
-        <v>0.7915463279123713</v>
+        <v>1.159673058208426</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_72/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424943767320741</v>
+        <v>0.2761521748416271</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3118604158014193</v>
+        <v>1.415816999082921</v>
       </c>
       <c r="E2">
-        <v>0.1840118281489467</v>
+        <v>0.8463949172655418</v>
       </c>
       <c r="F2">
-        <v>4.732069065250016</v>
+        <v>19.06031633528698</v>
       </c>
       <c r="G2">
-        <v>0.002378732223644709</v>
+        <v>0.0005030481713085226</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.312952077893129</v>
+        <v>10.07381547637189</v>
       </c>
       <c r="N2">
-        <v>1.161793999541331</v>
+        <v>0.7746072050887562</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329165875995102</v>
+        <v>0.2404272840826991</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2791309932840704</v>
+        <v>1.086029913878662</v>
       </c>
       <c r="E3">
-        <v>0.1608958717539366</v>
+        <v>0.6737989699514486</v>
       </c>
       <c r="F3">
-        <v>4.290291793991116</v>
+        <v>14.77089785212752</v>
       </c>
       <c r="G3">
-        <v>0.002395785736275016</v>
+        <v>0.0005575638562575368</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.037504976932127</v>
+        <v>7.99754692805908</v>
       </c>
       <c r="N3">
-        <v>1.164505009984907</v>
+        <v>0.8186369867793815</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271057416350345</v>
+        <v>0.2189362327084154</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2594259080747179</v>
+        <v>0.9278951358760708</v>
       </c>
       <c r="E4">
-        <v>0.1467170950507324</v>
+        <v>0.5885297502110163</v>
       </c>
       <c r="F4">
-        <v>4.024650225300491</v>
+        <v>12.68885058895472</v>
       </c>
       <c r="G4">
-        <v>0.002406718192862072</v>
+        <v>0.0005863417918956674</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.869911284058247</v>
+        <v>6.950978241649779</v>
       </c>
       <c r="N4">
-        <v>1.166804577164058</v>
+        <v>0.8405577133435571</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247554887388134</v>
+        <v>0.2102570413507436</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2514874601470183</v>
+        <v>0.8697536448844687</v>
       </c>
       <c r="E5">
-        <v>0.1409406385789822</v>
+        <v>0.5566009441460906</v>
       </c>
       <c r="F5">
-        <v>3.917724988858481</v>
+        <v>11.91927747034919</v>
       </c>
       <c r="G5">
-        <v>0.002411290404933791</v>
+        <v>0.0005974567385183668</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.801967288672415</v>
+        <v>6.557119470847113</v>
       </c>
       <c r="N5">
-        <v>1.167902417565884</v>
+        <v>0.8489271989553515</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243663046185475</v>
+        <v>0.2088199883167761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2501746225975978</v>
+        <v>0.8603992987198694</v>
       </c>
       <c r="E6">
-        <v>0.1399814929429581</v>
+        <v>0.5514308798470324</v>
       </c>
       <c r="F6">
-        <v>3.900047786284432</v>
+        <v>11.79525718126931</v>
       </c>
       <c r="G6">
-        <v>0.002412056724042516</v>
+        <v>0.0005992748349609161</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.79070553704662</v>
+        <v>6.493275587352002</v>
       </c>
       <c r="N6">
-        <v>1.168094453682215</v>
+        <v>0.8502946354189902</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270739734135873</v>
+        <v>0.218818893698014</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2593184855188326</v>
+        <v>0.9270894030522356</v>
       </c>
       <c r="E7">
-        <v>0.1466391883805969</v>
+        <v>0.5880896032037128</v>
       </c>
       <c r="F7">
-        <v>4.023202935971142</v>
+        <v>12.67820067022137</v>
       </c>
       <c r="G7">
-        <v>0.002406779379480869</v>
+        <v>0.0005864937143074243</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.868993586334454</v>
+        <v>6.945554440141933</v>
       </c>
       <c r="N7">
-        <v>1.166818730722838</v>
+        <v>0.8406723001598522</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391775053170647</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3004900153726737</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E8">
-        <v>0.1760371090530199</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F8">
-        <v>4.578527167677464</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G8">
-        <v>0.002384517151032461</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.217639334998921</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N8">
-        <v>1.162597599577566</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1634636790937236</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3846505399327782</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E9">
-        <v>0.2339055314143508</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F9">
-        <v>5.716097603498781</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G9">
-        <v>0.002344471965710315</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.915095691529245</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N9">
-        <v>1.159312783686843</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1816398203814487</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4490420599191509</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E10">
-        <v>0.2767111162530256</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F10">
-        <v>6.587449386849585</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G10">
-        <v>0.002317178501652276</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.438292748527005</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N10">
-        <v>1.159883975067743</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1899805412308098</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4790011395062947</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E11">
-        <v>0.296284319416813</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F11">
-        <v>6.992967294441144</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G11">
-        <v>0.00230520731410648</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.679207878160241</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N11">
-        <v>1.160779577295173</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1931492801008972</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4904513616683914</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E12">
-        <v>0.3037138658572331</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F12">
-        <v>7.147960971025498</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G12">
-        <v>0.002300736687076403</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.770902964658546</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N12">
-        <v>1.161209102450883</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1924663795527408</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4879805089109368</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E13">
-        <v>0.3021129455562175</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F13">
-        <v>7.114514612737537</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G13">
-        <v>0.002301696754342236</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.751133289474438</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N13">
-        <v>1.161112593415183</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1902410296807489</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4799409883821397</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E14">
-        <v>0.2968951813817569</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F14">
-        <v>7.005689294240597</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G14">
-        <v>0.002304838266371068</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.686742072815463</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N14">
-        <v>1.160813109197164</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1888792754276523</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4750305616608728</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E15">
-        <v>0.2937015380596932</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F15">
-        <v>6.939220896083327</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G15">
-        <v>0.00230677064447379</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.647362699675881</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N15">
-        <v>1.160641405737778</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1810961802115827</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.447098381875179</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E16">
-        <v>0.2754342498998881</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F16">
-        <v>6.561141701914835</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G16">
-        <v>0.002317969682042819</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.422610916122068</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N16">
-        <v>1.159838149403569</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1763399432845603</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4301402978102828</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E17">
-        <v>0.2642558114467022</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F17">
-        <v>6.33162488216044</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G17">
-        <v>0.00232495289441869</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.285511106277994</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N17">
-        <v>1.159507469544309</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1736110932492494</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4204486461888166</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E18">
-        <v>0.2578355520029731</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F18">
-        <v>6.200465240601432</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G18">
-        <v>0.002329011399124175</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.206925848194771</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N18">
-        <v>1.159377174389661</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.172688324805037</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4171776214270722</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E19">
-        <v>0.2556632651863993</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F19">
-        <v>6.156199712392606</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G19">
-        <v>0.002330392783757176</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.180363366592672</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N19">
-        <v>1.159343378920781</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1768455486460709</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4319390116650084</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E20">
-        <v>0.2654447926668411</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F20">
-        <v>6.355968281485275</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G20">
-        <v>0.002324205187653863</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.300077241634682</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N20">
-        <v>1.159536478790898</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1908943904786184</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4822994527801256</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E21">
-        <v>0.2984272617121206</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F21">
-        <v>7.037614057614519</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G21">
-        <v>0.002303913840123058</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.70564230273169</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N21">
-        <v>1.160898630375158</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2001360460211856</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.515831862542484</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E22">
-        <v>0.3200873902742245</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F22">
-        <v>7.491520990578749</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G22">
-        <v>0.002291016494449641</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.973441295945236</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N22">
-        <v>1.16231519689147</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1951981517022574</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4978750859357604</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E23">
-        <v>0.3085163558629773</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F23">
-        <v>7.248451441533291</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G23">
-        <v>0.002297867185738176</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.830244968102278</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N23">
-        <v>1.161511333947317</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1766169470917447</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4311256338775138</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E24">
-        <v>0.264907234637505</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F24">
-        <v>6.344960170699153</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G24">
-        <v>0.002324543089701712</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.293491162633899</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N24">
-        <v>1.159523177314554</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1568349367126558</v>
+        <v>0.2637129805712419</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3614691270802268</v>
+        <v>1.288278350977976</v>
       </c>
       <c r="E25">
-        <v>0.218211561347033</v>
+        <v>0.7802760580031673</v>
       </c>
       <c r="F25">
-        <v>5.402556378427278</v>
+        <v>17.4100244027581</v>
       </c>
       <c r="G25">
-        <v>0.002354926125232301</v>
+        <v>0.0005233597990288839</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.724703118753609</v>
+        <v>9.287088611537143</v>
       </c>
       <c r="N25">
-        <v>1.159673058208426</v>
+        <v>0.7915463279124424</v>
       </c>
       <c r="O25">
         <v>0</v>
